--- a/Experiments/240311_C13/genex_mt_240220.xlsx
+++ b/Experiments/240311_C13/genex_mt_240220.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/240311_C13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E863922-6F3E-E942-AB88-930C18CD92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158915A-B648-1045-87B4-BE97BC14CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29340" windowHeight="16020" xr2:uid="{85595F43-DD4E-0A45-B616-9F7A51F40558}"/>
+    <workbookView xWindow="60" yWindow="1880" windowWidth="29340" windowHeight="16020" xr2:uid="{85595F43-DD4E-0A45-B616-9F7A51F40558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>sds</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Neg</t>
+  </si>
+  <si>
+    <t>rTCA_20x</t>
+  </si>
+  <si>
+    <t>rTCA_GS_20x</t>
+  </si>
+  <si>
+    <t>Pyc_20x</t>
+  </si>
+  <si>
+    <t>Pyc_GS_20x</t>
+  </si>
+  <si>
+    <t>Neg_20x</t>
+  </si>
+  <si>
+    <t>sds_20x</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378B801-CA57-D043-87AC-05445D6D4499}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,22 +524,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -564,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -595,6 +613,132 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="I9">
+        <v>3.5</v>
+      </c>
+      <c r="J9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3.6</v>
+      </c>
+      <c r="J11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
     </row>
